--- a/data/_Scratch Sheet.xlsx
+++ b/data/_Scratch Sheet.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\peter\PythonProjects\PandasTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB2091A-5C66-4AC0-9D9A-862252874240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D63115B-386B-4785-B6A0-C61907910B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED06DDCD-195D-44E6-B9F0-F8855CB0D08F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$43</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,62 +39,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
-  <si>
-    <t>Comment to Senator</t>
-  </si>
-  <si>
-    <t>Comment to Representatives</t>
-  </si>
-  <si>
-    <t>Email Committee</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>Sign in</t>
   </si>
   <si>
-    <t>Email Specific Legislators</t>
-  </si>
-  <si>
     <t>Written Testimony</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
     <t>Contact Type</t>
   </si>
   <si>
-    <t>choose Pro and sign in</t>
-  </si>
-  <si>
-    <t>choose Pro and sign in OR choose Pro and leave a comment</t>
-  </si>
-  <si>
-    <t>choose Con and sign in</t>
-  </si>
-  <si>
     <t>choose Pro and leave a comment</t>
   </si>
   <si>
-    <t>choose Other and sign in OR choose Other and leave a comment</t>
-  </si>
-  <si>
     <t>choose Con and leave a comment</t>
   </si>
   <si>
-    <t>choose Con and sign in OR choose Con and leave a comment</t>
-  </si>
-  <si>
     <t>choose Other and leave a comment</t>
   </si>
   <si>
-    <t>Email House Democrats</t>
-  </si>
-  <si>
-    <t>Email Senate Democrats</t>
-  </si>
-  <si>
     <t>Contact Position</t>
   </si>
   <si>
@@ -122,54 +89,12 @@
     <t>I chose Other and left a comment</t>
   </si>
   <si>
-    <t>send a form email</t>
-  </si>
-  <si>
-    <t>Form Email</t>
-  </si>
-  <si>
-    <t>Comment to Senator and Representatives</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
     <t>Oppose</t>
   </si>
   <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>email the 14 committee members to support</t>
-  </si>
-  <si>
-    <t>email the 14 committee members to oppose</t>
-  </si>
-  <si>
-    <t>email the 14 committee members to modify</t>
-  </si>
-  <si>
-    <t>email the 3 legislators to support</t>
-  </si>
-  <si>
-    <t>email the 3 legislators to oppose</t>
-  </si>
-  <si>
-    <t>email the 3 legislators to modify</t>
-  </si>
-  <si>
-    <t>email the 58 members of the House to support</t>
-  </si>
-  <si>
-    <t>email the 58 members of the House to oppose</t>
-  </si>
-  <si>
-    <t>email the 58 members of the House to modify</t>
-  </si>
-  <si>
-    <t>email the 29 members of the Senate to support</t>
-  </si>
-  <si>
     <t>send a comment to your Senator to support</t>
   </si>
   <si>
@@ -179,9 +104,6 @@
     <t>send a comment to your Senator and two Representatives to support</t>
   </si>
   <si>
-    <t>email the 29 members of the Senate to oppose</t>
-  </si>
-  <si>
     <t>send a comment to your Senator to oppose</t>
   </si>
   <si>
@@ -191,9 +113,6 @@
     <t>send a comment to your Senator and two Representatives to oppose</t>
   </si>
   <si>
-    <t>email the 29 members of the Senate to modify</t>
-  </si>
-  <si>
     <t>send a comment to your Senator to modify</t>
   </si>
   <si>
@@ -204,6 +123,126 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Specific Legislators</t>
+  </si>
+  <si>
+    <t>House Democrats</t>
+  </si>
+  <si>
+    <t>Senate Democrats</t>
+  </si>
+  <si>
+    <t>Senator</t>
+  </si>
+  <si>
+    <t>Representatives</t>
+  </si>
+  <si>
+    <t>Senator and Representatives</t>
+  </si>
+  <si>
+    <t>Comment to District Legislators</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your two Representatives to support</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your Senator to support</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your Senator to oppose</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your Senator to modify</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your two Representatives to oppose</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your two Representatives to modify</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your Senator and two Representatives to support</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your Senator and two Representatives to oppose</t>
+  </si>
+  <si>
+    <t>send a form email from [partner] to your Senator and two Representatives to modify</t>
+  </si>
+  <si>
+    <t>Partner Form Email</t>
+  </si>
+  <si>
+    <t>email the [integer] committee members to support</t>
+  </si>
+  <si>
+    <t>email the [integer] committee members to oppose</t>
+  </si>
+  <si>
+    <t>email the [integer] committee members to modify</t>
+  </si>
+  <si>
+    <t>email the [integer] legislators to support</t>
+  </si>
+  <si>
+    <t>email the [integer] legislators to oppose</t>
+  </si>
+  <si>
+    <t>email the [integer] legislators to modify</t>
+  </si>
+  <si>
+    <t>email the [integer] members of the House to support</t>
+  </si>
+  <si>
+    <t>email the [integer] members of the House to oppose</t>
+  </si>
+  <si>
+    <t>email the [integer] members of the House to modify</t>
+  </si>
+  <si>
+    <t>email the [integer] members of the Senate to support</t>
+  </si>
+  <si>
+    <t>email the [integer] members of the Senate to oppose</t>
+  </si>
+  <si>
+    <t>email the [integer] members of the Senate to modify</t>
+  </si>
+  <si>
+    <t>choose Pro and sign in for</t>
+  </si>
+  <si>
+    <t>choose Con and sign in for</t>
+  </si>
+  <si>
+    <t>choose Other and sign in for</t>
+  </si>
+  <si>
+    <t>Contact Count</t>
+  </si>
+  <si>
+    <t>choose Pro and sign in OR choose Pro and leave a comment for</t>
+  </si>
+  <si>
+    <t>choose Con and sign in OR choose Con and leave a comment for</t>
+  </si>
+  <si>
+    <t>choose Other and sign in OR choose Other and leave a comment for</t>
+  </si>
+  <si>
+    <t>Attribute</t>
   </si>
 </sst>
 </file>
@@ -583,416 +622,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8860C7-5B1E-4B22-8A96-BEC5D5001436}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="1" max="1" width="59.625" customWidth="1"/>
     <col min="2" max="2" width="40.125" customWidth="1"/>
     <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="F16">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
-    <sortCondition ref="A11:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
+    <sortCondition ref="A12:A45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
